--- a/ResourceFiles/Relecloud Quarterly Newsletter Click Rates.xlsx
+++ b/ResourceFiles/Relecloud Quarterly Newsletter Click Rates.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28821"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\LeX\FY25\ILT\MSU121821_ILT_May\MS-4004_GitHub\10_DTP\ja-JP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E83BA-76B0-49BC-9C38-F1643F26F477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="6570" r:id="rId2"/>
+    <pivotCache cacheId="16" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -275,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,36 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.35"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.35"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.35"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -349,49 +322,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -416,74 +361,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -496,7 +373,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -508,13 +386,14 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[0]Sheet2!PivotTable1</c:name>
+    <c:name>[Relecloud Quarterly Newsletter Click Rates.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -525,8 +404,8 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-                <a:ea typeface="Aptos Narrow"/>
+                <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
                 <a:cs typeface="Aptos Narrow"/>
               </a:rPr>
               <a:t>[部門] によって [クリックされたリンク]</a:t>
@@ -534,7 +413,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -562,41 +440,29 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700">
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -723,10 +589,9 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
+        <c:gapWidth val="33"/>
         <c:overlap val="-30"/>
-        <c:gapWidth val="33"/>
         <c:axId val="1635959019"/>
         <c:axId val="1865508668"/>
       </c:barChart>
@@ -740,7 +605,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr vert="horz" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -760,7 +625,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -788,11 +652,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr vert="horz" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" baseline="0" kern="1200">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -810,6 +674,7 @@
         <c:crossAx val="1865508668"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -819,11 +684,25 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -843,7 +722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -853,20 +731,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -879,11 +743,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr vert="horz" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" baseline="0" kern="1200">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -929,6 +793,11 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
       <c16:pivotOptions16>
@@ -939,553 +808,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1499,24 +823,24 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Clustered Bar. 'Links clicked' by 'Department'&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99780057-0d4b-05ee-c2f8-9aefefae2ed8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99780057-0D4B-05EE-C2F8-9AEFEFAE2ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3819525" y="571500"/>
-        <a:ext cx="5105400" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1526,7 +850,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" refreshedBy="Excel Services" refreshedDate="45768.50783043981" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45768.507830439812" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{00000000-000A-0000-FFFF-FFFFAA190000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F11" sheet="Sheet1"/>
   </cacheSource>
@@ -1546,21 +870,26 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Emails sent" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" count="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1"/>
     </cacheField>
     <cacheField name="Emails opened" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" count="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1"/>
     </cacheField>
     <cacheField name="Links clicked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" count="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1"/>
     </cacheField>
     <cacheField name="Open rate (%)" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" count="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1"/>
     </cacheField>
     <cacheField name="Click-through rate (%)" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" count="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -1650,7 +979,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6570" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A2:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -1668,9 +997,9 @@
         <item t="default"/>
       </items>
       <autoSortScope>
-        <pivotArea outline="0" fieldPosition="0" type="normal">
+        <pivotArea outline="0" fieldPosition="0">
           <references count="1">
-            <reference field="4294967294" selected="0" count="1">
+            <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
           </references>
@@ -1680,8 +1009,8 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="164"/>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="164"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -1727,10 +1056,21 @@
   <dataFields count="1">
     <dataField name="Average of Links clicked" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -2055,24 +1395,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95495C8-E5F4-4C50-B129-D5B146DAE396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95495C8-E5F4-4C50-B129-D5B146DAE396}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="28.9">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,7 +1454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2128,15 +1468,15 @@
         <v>39</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" si="0" ref="E3:E11">(C3/B3)*100</f>
+        <f t="shared" ref="E3:E11" si="0">(C3/B3)*100</f>
         <v>70</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="1" ref="F3:F11">(D3/C3)*100</f>
+        <f t="shared" ref="F3:F11" si="1">(D3/C3)*100</f>
         <v>39.795918367346935</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2151,14 +1491,14 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>55.00000000000001</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>21.59090909090909</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2177,10 +1517,10 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="1"/>
-        <v>51.28205128205128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45">
+        <v>51.282051282051277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2202,7 +1542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2224,7 +1564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2243,10 +1583,10 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>41.7910447761194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.9">
+        <v>41.791044776119399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2265,10 +1605,10 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>46.73913043478261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.45">
+        <v>46.739130434782609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +1630,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2305,7 +1645,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>52.63157894736842</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
@@ -2314,41 +1654,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="top10" priority="3" dxfId="1" rank="3">
-      <formula>LARGE(($F$2:$F$11),MIN(3,COUNT($F$2:$F$11)))&lt;=F2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="top10" priority="4" dxfId="0" rank="3" bottom="1">
-      <formula>SMALL(($F$2:$F$11),MIN(3,COUNT($F$2:$F$11)))&gt;=F2</formula>
-    </cfRule>
+    <cfRule type="top10" dxfId="1" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643DDB8-FD01-4652-9E7A-B2921444693B}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643DDB8-FD01-4652-9E7A-B2921444693B}">
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15"/>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +1691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2364,7 +1699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +1707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2380,7 +1715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +1723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2396,7 +1731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2404,7 +1739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +1747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +1755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +1763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2438,6 +1773,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>